--- a/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
+++ b/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB96DD91-1017-4397-9312-583E7042FE2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410FDEF4-4DE7-4D2F-A239-33ADF8402930}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,13 +148,13 @@
     <t>________________</t>
   </si>
   <si>
-    <t>[[Customer]]</t>
-  </si>
-  <si>
     <t>Генеральний директор Александрович К.В.</t>
   </si>
   <si>
     <t>У разі ненадання завіренного оригіналу Акту протягом 5 робочих днів, заборгованість вважатиметься узгодженою та підтвердженою.</t>
+  </si>
+  <si>
+    <t>[[CustomerSignature]]</t>
   </si>
 </sst>
 </file>
@@ -510,30 +510,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -569,6 +545,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,7 +856,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -880,117 +880,117 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="H2" s="47" t="s">
+      <c r="C2" s="39"/>
+      <c r="H2" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="50" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="56" t="s">
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="18" t="s">
         <v>21</v>
       </c>
@@ -1000,16 +1000,16 @@
       <c r="J12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="57"/>
+      <c r="K12" s="49"/>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="44"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
@@ -1082,11 +1082,11 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="31"/>
@@ -1099,50 +1099,50 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
+      <c r="A26" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="42" t="s">
+      <c r="H27" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
     </row>
     <row r="29" spans="1:11" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="30" spans="1:11" s="23" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="39"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="34" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="60"/>
       <c r="C34" s="60"/>
@@ -1203,6 +1203,14 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:E28"/>
+    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:K2"/>
@@ -1218,14 +1226,6 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:E28"/>
-    <mergeCell ref="H27:J28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A34:H34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
+++ b/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410FDEF4-4DE7-4D2F-A239-33ADF8402930}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6923A8-E3C0-4EF4-B8CD-40C4E65B3A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7350" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -148,13 +148,13 @@
     <t>________________</t>
   </si>
   <si>
-    <t>Генеральний директор Александрович К.В.</t>
-  </si>
-  <si>
     <t>У разі ненадання завіренного оригіналу Акту протягом 5 робочих днів, заборгованість вважатиметься узгодженою та підтвердженою.</t>
   </si>
   <si>
     <t>[[CustomerSignature]]</t>
+  </si>
+  <si>
+    <t>Директор Александрович К.В.</t>
   </si>
 </sst>
 </file>
@@ -510,6 +510,33 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -545,33 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -856,7 +856,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -880,117 +880,117 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="H2" s="39" t="s">
+      <c r="C2" s="48"/>
+      <c r="H2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
     </row>
     <row r="11" spans="1:11" s="10" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="45" t="s">
+      <c r="H11" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48" t="s">
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="18" t="s">
         <v>21</v>
       </c>
@@ -1000,16 +1000,16 @@
       <c r="J12" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="49"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="13" t="s">
         <v>7</v>
       </c>
@@ -1082,11 +1082,11 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="32"/>
       <c r="E25" s="33"/>
       <c r="F25" s="31"/>
@@ -1099,50 +1099,50 @@
       <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
+      <c r="A26" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
       <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="54" t="s">
+      <c r="H27" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="29"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:11" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="35"/>
@@ -1158,10 +1158,10 @@
     </row>
     <row r="30" spans="1:11" s="23" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
       <c r="F30" s="26"/>
@@ -1186,16 +1186,16 @@
       <c r="K32" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
+      <c r="A34" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
       <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1203,14 +1203,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:E28"/>
-    <mergeCell ref="H27:J28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:K2"/>
@@ -1226,6 +1218,14 @@
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:E28"/>
+    <mergeCell ref="H27:J28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
+++ b/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6923A8-E3C0-4EF4-B8CD-40C4E65B3A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1590552-93CE-4A4E-B1CB-8C1ACA227729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7350" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Рахунок-фактура" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Постачальник</t>
   </si>
   <si>
-    <t>Платник</t>
-  </si>
-  <si>
     <t>Замовлення</t>
   </si>
   <si>
@@ -52,9 +49,6 @@
     <t>[[OrderNo]]</t>
   </si>
   <si>
-    <t>[[BillTo]]</t>
-  </si>
-  <si>
     <t>[[Items.Position]]</t>
   </si>
   <si>
@@ -64,18 +58,12 @@
     <t>[[Items.Quantity]]</t>
   </si>
   <si>
-    <t>[[Items.Total]]</t>
-  </si>
-  <si>
     <t>[[Items.Price]]</t>
   </si>
   <si>
     <t>Всього на суму: [[TotalWords]]</t>
   </si>
   <si>
-    <t>[[Totals.Amount]]</t>
-  </si>
-  <si>
     <t>[[FooterDetails]]</t>
   </si>
   <si>
@@ -85,24 +73,6 @@
     <t>Сервісний збір</t>
   </si>
   <si>
-    <t>без ПДВ</t>
-  </si>
-  <si>
-    <t>ПДВ</t>
-  </si>
-  <si>
-    <t>Всього</t>
-  </si>
-  <si>
-    <t>До сплати</t>
-  </si>
-  <si>
-    <t>[[Items.ServiceFee0]]</t>
-  </si>
-  <si>
-    <t>[[Items.Vat]]</t>
-  </si>
-  <si>
     <t>[[Items.ServiceFee]]</t>
   </si>
   <si>
@@ -112,15 +82,9 @@
     <t>К-ть</t>
   </si>
   <si>
-    <t>[[Totals.Title]]</t>
-  </si>
-  <si>
     <t>Замовник</t>
   </si>
   <si>
-    <t>Послуги виконані у повному обсязі. Сторони один до одного претензій не мають</t>
-  </si>
-  <si>
     <t>Акт виконаних послуг № [[Number]]</t>
   </si>
   <si>
@@ -155,13 +119,61 @@
   </si>
   <si>
     <t>Директор Александрович К.В.</t>
+  </si>
+  <si>
+    <t>Кіл-сть</t>
+  </si>
+  <si>
+    <t>Одиниця виміру</t>
+  </si>
+  <si>
+    <t>послуга</t>
+  </si>
+  <si>
+    <t>Всього:</t>
+  </si>
+  <si>
+    <t>[[Total]]</t>
+  </si>
+  <si>
+    <t>ПДВ:</t>
+  </si>
+  <si>
+    <t>[[Vat]]</t>
+  </si>
+  <si>
+    <t>До сплати:</t>
+  </si>
+  <si>
+    <t>[[TotalDue]]</t>
+  </si>
+  <si>
+    <t>Договір</t>
+  </si>
+  <si>
+    <t>Рахунок</t>
+  </si>
+  <si>
+    <t>Виконавцем були виконані наступні роботи (надані такі послуги):</t>
+  </si>
+  <si>
+    <t>Ми, що нижче підписалися, представник Замовника ДП "Мессер Україна" [[CustomerSignature]] з одного боку, і представник Виконавця ТОВ "Атлас Тур" Директор Александрович К. В. з іншого боку, склали цей акт про те, що на підставі наведених документів:</t>
+  </si>
+  <si>
+    <t>[[Number]] від [[IssueDate]:format(dd.MM.yyy)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> від </t>
+  </si>
+  <si>
+    <t>Послуги надані у повному обсязі. Сторони один до одного претензій не мають</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +230,28 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -300,17 +334,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -364,30 +387,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -411,33 +410,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -453,23 +471,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -481,10 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -510,6 +512,34 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,9 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -543,35 +570,65 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,379 +910,527 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="4" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="H1" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="H2" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>10</v>
-      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="H1" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="H2" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:11" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+    </row>
+    <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+    </row>
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+    </row>
+    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+    </row>
+    <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+    </row>
+    <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="27"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+    </row>
+    <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="B17" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-    </row>
-    <row r="7" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="59" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="55" t="s">
+      <c r="B19" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="58"/>
+      <c r="J20" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="61" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="58"/>
+      <c r="J21" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="58"/>
+      <c r="J22" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="61" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" s="16" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="1:11" s="16" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="58"/>
-    </row>
-    <row r="13" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="J14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:11" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="11"/>
-    </row>
-    <row r="26" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="29"/>
-    </row>
-    <row r="27" spans="1:11" s="28" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="1:11" s="30" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-    </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
-      <c r="B30" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-    </row>
-    <row r="34" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="39"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+    </row>
+    <row r="35" spans="1:11" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" s="13" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" s="67"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+    </row>
+    <row r="40" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="26"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="28">
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A36:J36"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:K2"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:E28"/>
-    <mergeCell ref="H27:J28"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="A7:K9"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:E34"/>
+    <mergeCell ref="H33:J34"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
+++ b/src/Web/static/reports/AtlasTour_CompletionCertificateTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\git\Luxena.Travel\src\Web\static\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1590552-93CE-4A4E-B1CB-8C1ACA227729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84040EB6-3C47-4C9A-90FB-2A40A3B839BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,16 +157,16 @@
     <t>Виконавцем були виконані наступні роботи (надані такі послуги):</t>
   </si>
   <si>
-    <t>Ми, що нижче підписалися, представник Замовника ДП "Мессер Україна" [[CustomerSignature]] з одного боку, і представник Виконавця ТОВ "Атлас Тур" Директор Александрович К. В. з іншого боку, склали цей акт про те, що на підставі наведених документів:</t>
-  </si>
-  <si>
-    <t>[[Number]] від [[IssueDate]:format(dd.MM.yyy)]</t>
-  </si>
-  <si>
     <t xml:space="preserve"> від </t>
   </si>
   <si>
     <t>Послуги надані у повному обсязі. Сторони один до одного претензій не мають</t>
+  </si>
+  <si>
+    <t>Ми, що нижче підписалися, представник Замовника [[CustomerSignature]] з одного боку, і представник Виконавця ТОВ "Атлас Тур" Директор Александрович К.В. з іншого боку, склали цей акт про те, що на підставі наведених документів:</t>
+  </si>
+  <si>
+    <t>[[InvoiceNo]] від [[InvoiceDate]:format(dd.MM.yyy)]</t>
   </si>
 </sst>
 </file>
@@ -183,16 +183,22 @@
       <u/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -527,17 +533,26 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,9 +591,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,44 +615,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -912,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -939,54 +945,54 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
       <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="H2" s="45" t="s">
+      <c r="C2" s="48"/>
+      <c r="H2" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
     </row>
     <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="29"/>
@@ -1002,188 +1008,188 @@
       <c r="K6" s="29"/>
     </row>
     <row r="7" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-    </row>
-    <row r="8" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-    </row>
-    <row r="9" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-    </row>
-    <row r="10" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-    </row>
-    <row r="11" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="C12" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="66" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="27"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
     </row>
     <row r="17" spans="1:11" s="4" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="58"/>
+      <c r="D17" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="55" t="s">
+      <c r="J17" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="56" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="36"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="57"/>
     </row>
     <row r="19" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="42"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="7" t="s">
         <v>6</v>
       </c>
@@ -1210,41 +1216,41 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="58"/>
-      <c r="J20" s="60" t="s">
+      <c r="D20" s="34"/>
+      <c r="E20" s="33"/>
+      <c r="J20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="61" t="s">
+      <c r="K20" s="36" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="58"/>
-      <c r="J21" s="60" t="s">
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="J21" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="61" t="s">
+      <c r="K21" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="28" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="58"/>
-      <c r="J22" s="60" t="s">
+      <c r="D22" s="34"/>
+      <c r="E22" s="33"/>
+      <c r="J22" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="61" t="s">
+      <c r="K22" s="36" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1255,7 +1261,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1282,11 +1288,11 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="20"/>
       <c r="E31" s="21"/>
       <c r="F31" s="19"/>
@@ -1299,11 +1305,11 @@
       <c r="K31" s="5"/>
     </row>
     <row r="32" spans="1:11" s="16" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -1316,33 +1322,33 @@
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="1:11" s="16" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:11" s="18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
@@ -1386,16 +1392,16 @@
       <c r="K38" s="15"/>
     </row>
     <row r="40" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
       <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
